--- a/data/output/FV2304_FV2210/UTILMD/11156.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11156.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4674" uniqueCount="349">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="349">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1187,6 +1187,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U219" totalsRowShown="0">
+  <autoFilter ref="A1:U219"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1476,7 +1506,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11520,5 +11553,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11156.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11156.xlsx
@@ -2246,7 +2246,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4736,7 +4736,7 @@
         <v>324</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4888,7 +4888,7 @@
         <v>324</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -5268,7 +5268,7 @@
         <v>324</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5556,7 +5556,7 @@
         <v>326</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6026,7 +6026,7 @@
         <v>330</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -6272,7 +6272,7 @@
         <v>332</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6760,7 +6760,7 @@
         <v>334</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6948,7 +6948,7 @@
         <v>334</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7136,7 +7136,7 @@
         <v>335</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7420,7 +7420,7 @@
         <v>336</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7766,7 +7766,7 @@
         <v>338</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -8010,7 +8010,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8202,7 +8202,7 @@
         <v>339</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8408,7 +8408,7 @@
         <v>340</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8698,7 +8698,7 @@
         <v>341</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8958,7 +8958,7 @@
         <v>342</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9258,7 +9258,7 @@
         <v>343</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -10238,7 +10238,7 @@
         <v>345</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10376,7 +10376,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -10524,7 +10524,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -10922,7 +10922,7 @@
         <v>348</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -11826,7 +11826,7 @@
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -12228,7 +12228,7 @@
         <v>349</v>
       </c>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -12740,7 +12740,7 @@
       </c>
       <c r="K217" s="2"/>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N217" s="2"/>
